--- a/public/uploads/student.xlsx
+++ b/public/uploads/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\Report Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79D355E-0337-4D7F-8375-0D1E15C997F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CFEB90-72E2-484E-BA09-46A88B315CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1274">
   <si>
     <t>name</t>
   </si>
@@ -3844,6 +3844,9 @@
   </si>
   <si>
     <t>Chamisa</t>
+  </si>
+  <si>
+    <t>ayishanialee@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4217,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D173" workbookViewId="0">
-      <selection activeCell="L177" sqref="L177"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14782,8 +14785,8 @@
       <c r="K186" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="L186" s="4" t="s">
-        <v>324</v>
+      <c r="L186" s="8" t="s">
+        <v>1273</v>
       </c>
       <c r="M186" s="4" t="s">
         <v>58</v>
@@ -15037,8 +15040,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L174" r:id="rId1" xr:uid="{A52171FB-D5BA-4978-AF27-CED2CE0D4689}"/>
+    <hyperlink ref="L186" r:id="rId2" xr:uid="{353DD769-9F7C-46EA-B694-CE4ED7DC5296}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>